--- a/FuseLinks/Ghendyano_2.xlsx
+++ b/FuseLinks/Ghendyano_2.xlsx
@@ -834,43 +834,43 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.9823</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.9559</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>8.879799999999999</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>8.922499999999999</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>8.9992</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>8.9245</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>9.001300000000001</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1179,43 +1179,43 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.1749</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1582</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1189</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>5.143</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1826</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>5.1441</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>5.1838</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1524,43 +1524,43 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.44645</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.43167</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>4.39894</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.41958</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4526</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>4.4205</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>4.45354</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1869,43 +1869,43 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.72866</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.71615</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.69486</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.71021</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>3.73168</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>3.71054</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>3.73202</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
@@ -2214,43 +2214,43 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.13451</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.12658</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1158</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.12463</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>2.13551</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12476</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>2.13563</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>2</v>
@@ -2559,43 +2559,43 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.95244</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>1.94494</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.93536</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.94351</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>1.95317</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
         <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.94362</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.95328</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -2904,43 +2904,43 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.980438</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9747440000000001</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>0.970373</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>0.975598</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>0.980013</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
         <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>0.975639</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>0.980056</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
         <v>3</v>
@@ -3249,43 +3249,43 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.558376</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0.554532</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>0.552647</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
         <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>0.555822</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>0.557728</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
         <v>5</v>
       </c>
       <c r="P41" t="n">
-        <v>0.555841</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>0.557747</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -3594,43 +3594,43 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.455661</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>0.452426</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>0.451171</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
         <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>0.453734</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>0.455003</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
         <v>5</v>
       </c>
       <c r="P46" t="n">
-        <v>0.453747</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>0.455017</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -3939,43 +3939,43 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.220991</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>0.22015</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>0.220011</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
         <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>0.220617</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>6</v>
       </c>
       <c r="N51" t="n">
-        <v>0.220757</v>
+        <v>6</v>
       </c>
       <c r="O51" t="n">
         <v>6</v>
       </c>
       <c r="P51" t="n">
-        <v>0.220619</v>
+        <v>6</v>
       </c>
       <c r="Q51" t="n">
         <v>6</v>
       </c>
       <c r="R51" t="n">
-        <v>0.220759</v>
+        <v>6</v>
       </c>
       <c r="S51" t="n">
         <v>6</v>
@@ -4284,43 +4284,43 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.404923</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
         <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>0.402519</v>
+        <v>10</v>
       </c>
       <c r="I56" t="n">
         <v>10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.40258</v>
+        <v>10</v>
       </c>
       <c r="K56" t="n">
         <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>0.40416</v>
+        <v>10</v>
       </c>
       <c r="M56" t="n">
         <v>10</v>
       </c>
       <c r="N56" t="n">
-        <v>0.404097</v>
+        <v>10</v>
       </c>
       <c r="O56" t="n">
         <v>10</v>
       </c>
       <c r="P56" t="n">
-        <v>0.404164</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="n">
         <v>10</v>
       </c>
       <c r="R56" t="n">
-        <v>0.404102</v>
+        <v>10</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -4629,43 +4629,43 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.36957</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
         <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>0.367473</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
         <v>10</v>
       </c>
       <c r="J61" t="n">
-        <v>0.367671</v>
+        <v>10</v>
       </c>
       <c r="K61" t="n">
         <v>10</v>
       </c>
       <c r="L61" t="n">
-        <v>0.369002</v>
+        <v>10</v>
       </c>
       <c r="M61" t="n">
         <v>10</v>
       </c>
       <c r="N61" t="n">
-        <v>0.368801</v>
+        <v>10</v>
       </c>
       <c r="O61" t="n">
         <v>10</v>
       </c>
       <c r="P61" t="n">
-        <v>0.369005</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="n">
         <v>10</v>
       </c>
       <c r="R61" t="n">
-        <v>0.368805</v>
+        <v>10</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -4974,43 +4974,43 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.564563</v>
+        <v>12</v>
       </c>
       <c r="G66" t="n">
         <v>12</v>
       </c>
       <c r="H66" t="n">
-        <v>0.55987</v>
+        <v>12</v>
       </c>
       <c r="I66" t="n">
         <v>12</v>
       </c>
       <c r="J66" t="n">
-        <v>0.560584</v>
+        <v>12</v>
       </c>
       <c r="K66" t="n">
         <v>12</v>
       </c>
       <c r="L66" t="n">
-        <v>0.563473</v>
+        <v>12</v>
       </c>
       <c r="M66" t="n">
         <v>12</v>
       </c>
       <c r="N66" t="n">
-        <v>0.5627490000000001</v>
+        <v>12</v>
       </c>
       <c r="O66" t="n">
         <v>12</v>
       </c>
       <c r="P66" t="n">
-        <v>0.56348</v>
+        <v>12</v>
       </c>
       <c r="Q66" t="n">
         <v>12</v>
       </c>
       <c r="R66" t="n">
-        <v>0.562756</v>
+        <v>12</v>
       </c>
       <c r="S66" t="n">
         <v>12</v>
@@ -5319,43 +5319,43 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.847457</v>
+        <v>15</v>
       </c>
       <c r="G71" t="n">
         <v>15</v>
       </c>
       <c r="H71" t="n">
-        <v>0.83775</v>
+        <v>15</v>
       </c>
       <c r="I71" t="n">
         <v>15</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8401149999999999</v>
+        <v>15</v>
       </c>
       <c r="K71" t="n">
         <v>15</v>
       </c>
       <c r="L71" t="n">
-        <v>0.8458020000000001</v>
+        <v>15</v>
       </c>
       <c r="M71" t="n">
         <v>15</v>
       </c>
       <c r="N71" t="n">
-        <v>0.843398</v>
+        <v>15</v>
       </c>
       <c r="O71" t="n">
         <v>15</v>
       </c>
       <c r="P71" t="n">
-        <v>0.845814</v>
+        <v>15</v>
       </c>
       <c r="Q71" t="n">
         <v>15</v>
       </c>
       <c r="R71" t="n">
-        <v>0.843411</v>
+        <v>15</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -6263,43 +6263,43 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.98319</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.95693</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>8.88081</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>8.923400000000001</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>9.00019</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>8.923400000000001</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>9.00019</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -7091,43 +7091,43 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.17548</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>5.15885</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>5.11952</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>5.14356</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>5.18324</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>5.14356</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>5.18324</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -7919,43 +7919,43 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.44696</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>4.43223</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>4.39949</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>4.4201</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>4.45313</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>4.4201</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>4.45313</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -8747,43 +8747,43 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.72878</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7163</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.69501</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.71034</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>3.73181</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>3.71034</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>3.73181</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -9575,43 +9575,43 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.13455</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.12663</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.11585</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>2.12467</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>2.13555</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>2.12467</v>
+        <v>2</v>
       </c>
       <c r="Q61" t="n">
         <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>2.13555</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -10403,43 +10403,43 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.95247</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1.94498</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.93541</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>1.94355</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>1.95321</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
         <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>1.94355</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
         <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.95321</v>
+        <v>2</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -11231,43 +11231,43 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.980445</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>0.974757</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9703850000000001</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>0.975607</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="n">
-        <v>0.9800219999999999</v>
+        <v>3</v>
       </c>
       <c r="O85" t="n">
         <v>3</v>
       </c>
       <c r="P85" t="n">
-        <v>0.975607</v>
+        <v>3</v>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
       </c>
       <c r="R85" t="n">
-        <v>0.9800219999999999</v>
+        <v>3</v>
       </c>
       <c r="S85" t="n">
         <v>3</v>
@@ -12059,43 +12059,43 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.558378</v>
+        <v>5</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
       </c>
       <c r="H97" t="n">
-        <v>0.554536</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
         <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>0.552652</v>
+        <v>5</v>
       </c>
       <c r="K97" t="n">
         <v>5</v>
       </c>
       <c r="L97" t="n">
-        <v>0.555826</v>
+        <v>5</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5577299999999999</v>
+        <v>5</v>
       </c>
       <c r="O97" t="n">
         <v>5</v>
       </c>
       <c r="P97" t="n">
-        <v>0.555826</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="n">
         <v>5</v>
       </c>
       <c r="R97" t="n">
-        <v>0.5577299999999999</v>
+        <v>5</v>
       </c>
       <c r="S97" t="n">
         <v>5</v>
@@ -12887,43 +12887,43 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.4556617</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4524291</v>
+        <v>5</v>
       </c>
       <c r="I109" t="n">
         <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4511741</v>
+        <v>5</v>
       </c>
       <c r="K109" t="n">
         <v>5</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4537362</v>
+        <v>5</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>0.455005</v>
+        <v>5</v>
       </c>
       <c r="O109" t="n">
         <v>5</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4537362</v>
+        <v>5</v>
       </c>
       <c r="Q109" t="n">
         <v>5</v>
       </c>
       <c r="R109" t="n">
-        <v>0.455005</v>
+        <v>5</v>
       </c>
       <c r="S109" t="n">
         <v>5</v>
@@ -13715,43 +13715,43 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.2209908</v>
+        <v>6</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>0.22015</v>
+        <v>6</v>
       </c>
       <c r="I121" t="n">
         <v>6</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2200112</v>
+        <v>6</v>
       </c>
       <c r="K121" t="n">
         <v>6</v>
       </c>
       <c r="L121" t="n">
-        <v>0.220617</v>
+        <v>6</v>
       </c>
       <c r="M121" t="n">
         <v>6</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2207568</v>
+        <v>6</v>
       </c>
       <c r="O121" t="n">
         <v>6</v>
       </c>
       <c r="P121" t="n">
-        <v>0.220617</v>
+        <v>6</v>
       </c>
       <c r="Q121" t="n">
         <v>6</v>
       </c>
       <c r="R121" t="n">
-        <v>0.2207568</v>
+        <v>6</v>
       </c>
       <c r="S121" t="n">
         <v>6</v>
@@ -14543,43 +14543,43 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.4049231</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
         <v>10</v>
       </c>
       <c r="H133" t="n">
-        <v>0.4025192</v>
+        <v>10</v>
       </c>
       <c r="I133" t="n">
         <v>10</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4025809</v>
+        <v>10</v>
       </c>
       <c r="K133" t="n">
         <v>10</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4041599</v>
+        <v>10</v>
       </c>
       <c r="M133" t="n">
         <v>10</v>
       </c>
       <c r="N133" t="n">
-        <v>0.4040975</v>
+        <v>10</v>
       </c>
       <c r="O133" t="n">
         <v>10</v>
       </c>
       <c r="P133" t="n">
-        <v>0.4041599</v>
+        <v>10</v>
       </c>
       <c r="Q133" t="n">
         <v>10</v>
       </c>
       <c r="R133" t="n">
-        <v>0.4040975</v>
+        <v>10</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15371,43 +15371,43 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.3695697</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
       </c>
       <c r="H145" t="n">
-        <v>0.367473</v>
+        <v>10</v>
       </c>
       <c r="I145" t="n">
         <v>10</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3676717</v>
+        <v>10</v>
       </c>
       <c r="K145" t="n">
         <v>10</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3690019</v>
+        <v>10</v>
       </c>
       <c r="M145" t="n">
         <v>10</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3688009</v>
+        <v>10</v>
       </c>
       <c r="O145" t="n">
         <v>10</v>
       </c>
       <c r="P145" t="n">
-        <v>0.3690019</v>
+        <v>10</v>
       </c>
       <c r="Q145" t="n">
         <v>10</v>
       </c>
       <c r="R145" t="n">
-        <v>0.3688009</v>
+        <v>10</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -16199,43 +16199,43 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.564563</v>
+        <v>12</v>
       </c>
       <c r="G157" t="n">
         <v>12</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5598704</v>
+        <v>12</v>
       </c>
       <c r="I157" t="n">
         <v>12</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5605855</v>
+        <v>12</v>
       </c>
       <c r="K157" t="n">
         <v>12</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5634735</v>
+        <v>12</v>
       </c>
       <c r="M157" t="n">
         <v>12</v>
       </c>
       <c r="N157" t="n">
-        <v>0.5627483</v>
+        <v>12</v>
       </c>
       <c r="O157" t="n">
         <v>12</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5634735</v>
+        <v>12</v>
       </c>
       <c r="Q157" t="n">
         <v>12</v>
       </c>
       <c r="R157" t="n">
-        <v>0.5627483</v>
+        <v>12</v>
       </c>
       <c r="S157" t="n">
         <v>12</v>
@@ -17027,43 +17027,43 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.847456</v>
+        <v>15</v>
       </c>
       <c r="G169" t="n">
         <v>15</v>
       </c>
       <c r="H169" t="n">
-        <v>0.8377508</v>
+        <v>15</v>
       </c>
       <c r="I169" t="n">
         <v>15</v>
       </c>
       <c r="J169" t="n">
-        <v>0.8401174</v>
+        <v>15</v>
       </c>
       <c r="K169" t="n">
         <v>15</v>
       </c>
       <c r="L169" t="n">
-        <v>0.8458026</v>
+        <v>15</v>
       </c>
       <c r="M169" t="n">
         <v>15</v>
       </c>
       <c r="N169" t="n">
-        <v>0.8433979</v>
+        <v>15</v>
       </c>
       <c r="O169" t="n">
         <v>15</v>
       </c>
       <c r="P169" t="n">
-        <v>0.8458026</v>
+        <v>15</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
       </c>
       <c r="R169" t="n">
-        <v>0.8433979</v>
+        <v>15</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>

--- a/FuseLinks/Ghendyano_2.xlsx
+++ b/FuseLinks/Ghendyano_2.xlsx
@@ -833,44 +833,58 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1178,44 +1192,58 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R11" t="n">
-        <v>1</v>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1523,44 +1551,58 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R16" t="n">
-        <v>1</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1868,44 +1910,58 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>2</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>2</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="N21" t="n">
-        <v>2</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="P21" t="n">
-        <v>2</v>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R21" t="n">
-        <v>2</v>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S21" t="n">
         <v>2</v>
@@ -2213,44 +2269,58 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>2</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>2</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
-      <c r="J26" t="n">
-        <v>2</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="n">
-        <v>2</v>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
-      <c r="N26" t="n">
-        <v>2</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O26" t="n">
         <v>2</v>
       </c>
-      <c r="P26" t="n">
-        <v>2</v>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R26" t="n">
-        <v>2</v>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S26" t="n">
         <v>2</v>
@@ -2558,44 +2628,58 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>2</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>2</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="J31" t="n">
-        <v>2</v>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
-        <v>2</v>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
-      <c r="N31" t="n">
-        <v>2</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P31" t="n">
-        <v>2</v>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R31" t="n">
-        <v>2</v>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S31" t="n">
         <v>2</v>
@@ -2903,44 +2987,58 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>3</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>3</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I36" t="n">
         <v>3</v>
       </c>
-      <c r="J36" t="n">
-        <v>3</v>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K36" t="n">
         <v>3</v>
       </c>
-      <c r="L36" t="n">
-        <v>3</v>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="n">
-        <v>3</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O36" t="n">
         <v>3</v>
       </c>
-      <c r="P36" t="n">
-        <v>3</v>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="R36" t="n">
-        <v>3</v>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S36" t="n">
         <v>3</v>
@@ -3248,44 +3346,58 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>5</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v>5</v>
       </c>
-      <c r="H41" t="n">
-        <v>5</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
-      <c r="J41" t="n">
-        <v>5</v>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K41" t="n">
         <v>5</v>
       </c>
-      <c r="L41" t="n">
-        <v>5</v>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
-      <c r="N41" t="n">
-        <v>5</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O41" t="n">
         <v>5</v>
       </c>
-      <c r="P41" t="n">
-        <v>5</v>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
-      <c r="R41" t="n">
-        <v>5</v>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -3593,44 +3705,58 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>5</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v>5</v>
       </c>
-      <c r="H46" t="n">
-        <v>5</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I46" t="n">
         <v>5</v>
       </c>
-      <c r="J46" t="n">
-        <v>5</v>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="L46" t="n">
-        <v>5</v>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="n">
-        <v>5</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O46" t="n">
         <v>5</v>
       </c>
-      <c r="P46" t="n">
-        <v>5</v>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
-      <c r="R46" t="n">
-        <v>5</v>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -3938,44 +4064,58 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>6</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v>6</v>
       </c>
-      <c r="H51" t="n">
-        <v>6</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I51" t="n">
         <v>6</v>
       </c>
-      <c r="J51" t="n">
-        <v>6</v>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K51" t="n">
         <v>6</v>
       </c>
-      <c r="L51" t="n">
-        <v>6</v>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M51" t="n">
         <v>6</v>
       </c>
-      <c r="N51" t="n">
-        <v>6</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O51" t="n">
         <v>6</v>
       </c>
-      <c r="P51" t="n">
-        <v>6</v>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q51" t="n">
         <v>6</v>
       </c>
-      <c r="R51" t="n">
-        <v>6</v>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S51" t="n">
         <v>6</v>
@@ -4283,44 +4423,58 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>10</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v>10</v>
       </c>
-      <c r="H56" t="n">
-        <v>10</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I56" t="n">
         <v>10</v>
       </c>
-      <c r="J56" t="n">
-        <v>10</v>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K56" t="n">
         <v>10</v>
       </c>
-      <c r="L56" t="n">
-        <v>10</v>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M56" t="n">
         <v>10</v>
       </c>
-      <c r="N56" t="n">
-        <v>10</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O56" t="n">
         <v>10</v>
       </c>
-      <c r="P56" t="n">
-        <v>10</v>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q56" t="n">
         <v>10</v>
       </c>
-      <c r="R56" t="n">
-        <v>10</v>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -4628,44 +4782,58 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>10</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>10</v>
       </c>
-      <c r="H61" t="n">
-        <v>10</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I61" t="n">
         <v>10</v>
       </c>
-      <c r="J61" t="n">
-        <v>10</v>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K61" t="n">
         <v>10</v>
       </c>
-      <c r="L61" t="n">
-        <v>10</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M61" t="n">
         <v>10</v>
       </c>
-      <c r="N61" t="n">
-        <v>10</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O61" t="n">
         <v>10</v>
       </c>
-      <c r="P61" t="n">
-        <v>10</v>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q61" t="n">
         <v>10</v>
       </c>
-      <c r="R61" t="n">
-        <v>10</v>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -4973,44 +5141,58 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>12</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v>12</v>
       </c>
-      <c r="H66" t="n">
-        <v>12</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I66" t="n">
         <v>12</v>
       </c>
-      <c r="J66" t="n">
-        <v>12</v>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K66" t="n">
         <v>12</v>
       </c>
-      <c r="L66" t="n">
-        <v>12</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M66" t="n">
         <v>12</v>
       </c>
-      <c r="N66" t="n">
-        <v>12</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O66" t="n">
         <v>12</v>
       </c>
-      <c r="P66" t="n">
-        <v>12</v>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q66" t="n">
         <v>12</v>
       </c>
-      <c r="R66" t="n">
-        <v>12</v>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S66" t="n">
         <v>12</v>
@@ -5318,44 +5500,58 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>15</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v>15</v>
       </c>
-      <c r="H71" t="n">
-        <v>15</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I71" t="n">
         <v>15</v>
       </c>
-      <c r="J71" t="n">
-        <v>15</v>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K71" t="n">
         <v>15</v>
       </c>
-      <c r="L71" t="n">
-        <v>15</v>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M71" t="n">
         <v>15</v>
       </c>
-      <c r="N71" t="n">
-        <v>15</v>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O71" t="n">
         <v>15</v>
       </c>
-      <c r="P71" t="n">
-        <v>15</v>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q71" t="n">
         <v>15</v>
       </c>
-      <c r="R71" t="n">
-        <v>15</v>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -6262,44 +6458,58 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>1</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R13" t="n">
-        <v>1</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -7090,44 +7300,58 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="n">
-        <v>1</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
-        <v>1</v>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R25" t="n">
-        <v>1</v>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -7918,44 +8142,58 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="n">
-        <v>1</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
-        <v>1</v>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
-      <c r="R37" t="n">
-        <v>1</v>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -8746,44 +8984,58 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>2</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="n">
-        <v>2</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="J49" t="n">
-        <v>2</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K49" t="n">
         <v>2</v>
       </c>
-      <c r="L49" t="n">
-        <v>2</v>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
-      <c r="N49" t="n">
-        <v>2</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O49" t="n">
         <v>2</v>
       </c>
-      <c r="P49" t="n">
-        <v>2</v>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R49" t="n">
-        <v>2</v>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S49" t="n">
         <v>2</v>
@@ -9574,44 +9826,58 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>2</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="n">
-        <v>2</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="J61" t="n">
-        <v>2</v>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K61" t="n">
         <v>2</v>
       </c>
-      <c r="L61" t="n">
-        <v>2</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
-      <c r="N61" t="n">
-        <v>2</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O61" t="n">
         <v>2</v>
       </c>
-      <c r="P61" t="n">
-        <v>2</v>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q61" t="n">
         <v>2</v>
       </c>
-      <c r="R61" t="n">
-        <v>2</v>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S61" t="n">
         <v>2</v>
@@ -10402,44 +10668,58 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>2</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="J73" t="n">
-        <v>2</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="n">
-        <v>2</v>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
-      <c r="N73" t="n">
-        <v>2</v>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O73" t="n">
         <v>2</v>
       </c>
-      <c r="P73" t="n">
-        <v>2</v>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q73" t="n">
         <v>2</v>
       </c>
-      <c r="R73" t="n">
-        <v>2</v>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S73" t="n">
         <v>2</v>
@@ -11230,44 +11510,58 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>3</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="n">
-        <v>3</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="n">
-        <v>3</v>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K85" t="n">
         <v>3</v>
       </c>
-      <c r="L85" t="n">
-        <v>3</v>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
-      <c r="N85" t="n">
-        <v>3</v>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O85" t="n">
         <v>3</v>
       </c>
-      <c r="P85" t="n">
-        <v>3</v>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
       </c>
-      <c r="R85" t="n">
-        <v>3</v>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S85" t="n">
         <v>3</v>
@@ -12058,44 +12352,58 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>5</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v>5</v>
       </c>
-      <c r="H97" t="n">
-        <v>5</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I97" t="n">
         <v>5</v>
       </c>
-      <c r="J97" t="n">
-        <v>5</v>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K97" t="n">
         <v>5</v>
       </c>
-      <c r="L97" t="n">
-        <v>5</v>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
-      <c r="N97" t="n">
-        <v>5</v>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O97" t="n">
         <v>5</v>
       </c>
-      <c r="P97" t="n">
-        <v>5</v>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q97" t="n">
         <v>5</v>
       </c>
-      <c r="R97" t="n">
-        <v>5</v>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S97" t="n">
         <v>5</v>
@@ -12886,44 +13194,58 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>5</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G109" t="n">
         <v>5</v>
       </c>
-      <c r="H109" t="n">
-        <v>5</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I109" t="n">
         <v>5</v>
       </c>
-      <c r="J109" t="n">
-        <v>5</v>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K109" t="n">
         <v>5</v>
       </c>
-      <c r="L109" t="n">
-        <v>5</v>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
-      <c r="N109" t="n">
-        <v>5</v>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O109" t="n">
         <v>5</v>
       </c>
-      <c r="P109" t="n">
-        <v>5</v>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q109" t="n">
         <v>5</v>
       </c>
-      <c r="R109" t="n">
-        <v>5</v>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S109" t="n">
         <v>5</v>
@@ -13714,44 +14036,58 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>6</v>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v>6</v>
       </c>
-      <c r="H121" t="n">
-        <v>6</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I121" t="n">
         <v>6</v>
       </c>
-      <c r="J121" t="n">
-        <v>6</v>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K121" t="n">
         <v>6</v>
       </c>
-      <c r="L121" t="n">
-        <v>6</v>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M121" t="n">
         <v>6</v>
       </c>
-      <c r="N121" t="n">
-        <v>6</v>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O121" t="n">
         <v>6</v>
       </c>
-      <c r="P121" t="n">
-        <v>6</v>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q121" t="n">
         <v>6</v>
       </c>
-      <c r="R121" t="n">
-        <v>6</v>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S121" t="n">
         <v>6</v>
@@ -14542,44 +14878,58 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>10</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v>10</v>
       </c>
-      <c r="H133" t="n">
-        <v>10</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I133" t="n">
         <v>10</v>
       </c>
-      <c r="J133" t="n">
-        <v>10</v>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K133" t="n">
         <v>10</v>
       </c>
-      <c r="L133" t="n">
-        <v>10</v>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M133" t="n">
         <v>10</v>
       </c>
-      <c r="N133" t="n">
-        <v>10</v>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O133" t="n">
         <v>10</v>
       </c>
-      <c r="P133" t="n">
-        <v>10</v>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q133" t="n">
         <v>10</v>
       </c>
-      <c r="R133" t="n">
-        <v>10</v>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -15370,44 +15720,58 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>10</v>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G145" t="n">
         <v>10</v>
       </c>
-      <c r="H145" t="n">
-        <v>10</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I145" t="n">
         <v>10</v>
       </c>
-      <c r="J145" t="n">
-        <v>10</v>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K145" t="n">
         <v>10</v>
       </c>
-      <c r="L145" t="n">
-        <v>10</v>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M145" t="n">
         <v>10</v>
       </c>
-      <c r="N145" t="n">
-        <v>10</v>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O145" t="n">
         <v>10</v>
       </c>
-      <c r="P145" t="n">
-        <v>10</v>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q145" t="n">
         <v>10</v>
       </c>
-      <c r="R145" t="n">
-        <v>10</v>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -16198,44 +16562,58 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>12</v>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G157" t="n">
         <v>12</v>
       </c>
-      <c r="H157" t="n">
-        <v>12</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I157" t="n">
         <v>12</v>
       </c>
-      <c r="J157" t="n">
-        <v>12</v>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K157" t="n">
         <v>12</v>
       </c>
-      <c r="L157" t="n">
-        <v>12</v>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M157" t="n">
         <v>12</v>
       </c>
-      <c r="N157" t="n">
-        <v>12</v>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O157" t="n">
         <v>12</v>
       </c>
-      <c r="P157" t="n">
-        <v>12</v>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q157" t="n">
         <v>12</v>
       </c>
-      <c r="R157" t="n">
-        <v>12</v>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S157" t="n">
         <v>12</v>
@@ -17026,44 +17404,58 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>15</v>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G169" t="n">
         <v>15</v>
       </c>
-      <c r="H169" t="n">
-        <v>15</v>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I169" t="n">
         <v>15</v>
       </c>
-      <c r="J169" t="n">
-        <v>15</v>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K169" t="n">
         <v>15</v>
       </c>
-      <c r="L169" t="n">
-        <v>15</v>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M169" t="n">
         <v>15</v>
       </c>
-      <c r="N169" t="n">
-        <v>15</v>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O169" t="n">
         <v>15</v>
       </c>
-      <c r="P169" t="n">
-        <v>15</v>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
       </c>
-      <c r="R169" t="n">
-        <v>15</v>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S169" t="n">
         <v>15</v>

--- a/FuseLinks/Ghendyano_2.xlsx
+++ b/FuseLinks/Ghendyano_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\T2F_CSV\FuseLinks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\projetos\T2F_CSV\FuseLinks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B61FFC-37CA-46AB-9D99-0462E465BE3C}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3002992-F5A3-41BE-BC3E-F76929ADF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linha" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -5035,7 +5035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S169"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
